--- a/statistici.xlsx
+++ b/statistici.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inputTableName" sheetId="1" r:id="R226e71c5b4024318"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inputTableName" sheetId="1" r:id="R69475c2e35f043e5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/statistici.xlsx
+++ b/statistici.xlsx
@@ -5,7 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inputTableName" sheetId="1" r:id="R69475c2e35f043e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Date initiale" sheetId="1" r:id="Rca792634cdda48e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validare" sheetId="2" r:id="R4d13f3715d0b49b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valori de interes" sheetId="3" r:id="R8e0f8cc56deb4459"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Preturi de referinta" sheetId="4" r:id="Re0eb2acbddc94d61"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rezultate economice" sheetId="5" r:id="R93e14c6a086647bb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -83,4 +87,1402 @@
     </x:row>
   </x:sheetData>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" t="str">
+        <x:v>coefA</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>coefB</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>coefC</x:v>
+      </x:c>
+      <x:c r="D1" t="str">
+        <x:v>Fcal</x:v>
+      </x:c>
+      <x:c r="E1" t="str">
+        <x:v>Corelatie</x:v>
+      </x:c>
+      <x:c r="F1" t="str">
+        <x:v>f 1%</x:v>
+      </x:c>
+      <x:c r="G1" t="str">
+        <x:v>f 5%</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" t="str">
+        <x:v>2257.12923804702</x:v>
+      </x:c>
+      <x:c r="B2" t="str">
+        <x:v>18.5715904084078</x:v>
+      </x:c>
+      <x:c r="C2" t="str">
+        <x:v>-0.040000409523989</x:v>
+      </x:c>
+      <x:c r="D2" t="str">
+        <x:v>225.319260547827</x:v>
+      </x:c>
+      <x:c r="E2" t="str">
+        <x:v>0.9955911818611</x:v>
+      </x:c>
+      <x:c r="F2" t="str">
+        <x:v>10.92</x:v>
+      </x:c>
+      <x:c r="G2" t="str">
+        <x:v>5.14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" t="str">
+        <x:v>Tip</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>Doza N (kgsa/ha)</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>F(N) (kg/ha)</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" t="str">
+        <x:v>Prag Rentabilitate</x:v>
+      </x:c>
+      <x:c r="B2" t="str">
+        <x:v>42.8577480600639</x:v>
+      </x:c>
+      <x:c r="C2" t="str">
+        <x:v>2979.5935658859</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" t="str">
+        <x:v>Maximum Tehnic</x:v>
+      </x:c>
+      <x:c r="B3" t="str">
+        <x:v>232.142503406997</x:v>
+      </x:c>
+      <x:c r="C3" t="str">
+        <x:v>4412.75698287559</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="str">
+        <x:v>Optim Economic</x:v>
+      </x:c>
+      <x:c r="B4" t="str">
+        <x:v>196.428583335386</x:v>
+      </x:c>
+      <x:c r="C4" t="str">
+        <x:v>4361.73709705901</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" t="str">
+        <x:v>Tip</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>Valoare (lei)</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" t="str">
+        <x:v>Pret vanzare produs (lei/kg)</x:v>
+      </x:c>
+      <x:c r="B2" t="str">
+        <x:v>0.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" t="str">
+        <x:v>Pret achizitie factor (lei/kgsa)</x:v>
+      </x:c>
+      <x:c r="B3" t="str">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="str">
+        <x:v>Cheltuieli fixe (lei / ha)</x:v>
+      </x:c>
+      <x:c r="B4" t="str">
+        <x:v>2000</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" t="str">
+        <x:v>Doza aplicata (kgsa/ha)</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>Productie (kg/ha)</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>Cheltuieli (lei/ha)</x:v>
+      </x:c>
+      <x:c r="D1" t="str">
+        <x:v>Venituri (lei/ha)</x:v>
+      </x:c>
+      <x:c r="E1" t="str">
+        <x:v>Profit (lei/ha)</x:v>
+      </x:c>
+      <x:c r="F1" t="str">
+        <x:v>Cheltuieli marginale (lei/ha)</x:v>
+      </x:c>
+      <x:c r="G1" t="str">
+        <x:v>Venituri marginale (lei/ha)</x:v>
+      </x:c>
+      <x:c r="H1" t="str">
+        <x:v>Profit marginal (lei/ha)</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" t="str">
+        <x:v>2257.12923804702</x:v>
+      </x:c>
+      <x:c r="C2" t="str">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="D2" t="str">
+        <x:v>1579.99046663291</x:v>
+      </x:c>
+      <x:c r="E2" t="str">
+        <x:v>-420.009533367088</x:v>
+      </x:c>
+      <x:c r="F2" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G2" t="str">
+        <x:v>13.0001132858854</x:v>
+      </x:c>
+      <x:c r="H2" t="str">
+        <x:v>11.0001132858854</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" t="str">
+        <x:v>2438.8451011787</x:v>
+      </x:c>
+      <x:c r="C3" t="str">
+        <x:v>2020</x:v>
+      </x:c>
+      <x:c r="D3" t="str">
+        <x:v>1707.19157082509</x:v>
+      </x:c>
+      <x:c r="E3" t="str">
+        <x:v>-312.808429174913</x:v>
+      </x:c>
+      <x:c r="F3" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G3" t="str">
+        <x:v>12.4401075525496</x:v>
+      </x:c>
+      <x:c r="H3" t="str">
+        <x:v>10.4401075525496</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" t="str">
+        <x:v>2612.56088240558</x:v>
+      </x:c>
+      <x:c r="C4" t="str">
+        <x:v>2040</x:v>
+      </x:c>
+      <x:c r="D4" t="str">
+        <x:v>1828.7926176839</x:v>
+      </x:c>
+      <x:c r="E4" t="str">
+        <x:v>-211.207382316096</x:v>
+      </x:c>
+      <x:c r="F4" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G4" t="str">
+        <x:v>11.8801018192137</x:v>
+      </x:c>
+      <x:c r="H4" t="str">
+        <x:v>9.88010181921374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B5" t="str">
+        <x:v>2778.27658172766</x:v>
+      </x:c>
+      <x:c r="C5" t="str">
+        <x:v>2060</x:v>
+      </x:c>
+      <x:c r="D5" t="str">
+        <x:v>1944.79360720936</x:v>
+      </x:c>
+      <x:c r="E5" t="str">
+        <x:v>-115.206392790638</x:v>
+      </x:c>
+      <x:c r="F5" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G5" t="str">
+        <x:v>11.3200960858779</x:v>
+      </x:c>
+      <x:c r="H5" t="str">
+        <x:v>9.32009608587789</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B6" t="str">
+        <x:v>2935.99219914495</x:v>
+      </x:c>
+      <x:c r="C6" t="str">
+        <x:v>2080</x:v>
+      </x:c>
+      <x:c r="D6" t="str">
+        <x:v>2055.19453940146</x:v>
+      </x:c>
+      <x:c r="E6" t="str">
+        <x:v>-24.8054605985385</x:v>
+      </x:c>
+      <x:c r="F6" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G6" t="str">
+        <x:v>10.760090352542</x:v>
+      </x:c>
+      <x:c r="H6" t="str">
+        <x:v>8.76009035254205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" t="str">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B7" t="str">
+        <x:v>3085.70773465743</x:v>
+      </x:c>
+      <x:c r="C7" t="str">
+        <x:v>2100</x:v>
+      </x:c>
+      <x:c r="D7" t="str">
+        <x:v>2159.9954142602</x:v>
+      </x:c>
+      <x:c r="E7" t="str">
+        <x:v>59.9954142602028</x:v>
+      </x:c>
+      <x:c r="F7" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G7" t="str">
+        <x:v>10.2000846192062</x:v>
+      </x:c>
+      <x:c r="H7" t="str">
+        <x:v>8.2000846192062</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8" t="str">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B8" t="str">
+        <x:v>3227.42318826512</x:v>
+      </x:c>
+      <x:c r="C8" t="str">
+        <x:v>2120</x:v>
+      </x:c>
+      <x:c r="D8" t="str">
+        <x:v>2259.19623178559</x:v>
+      </x:c>
+      <x:c r="E8" t="str">
+        <x:v>139.196231785585</x:v>
+      </x:c>
+      <x:c r="F8" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G8" t="str">
+        <x:v>9.64007888587036</x:v>
+      </x:c>
+      <x:c r="H8" t="str">
+        <x:v>7.64007888587036</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9" t="str">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B9" t="str">
+        <x:v>3361.13855996801</x:v>
+      </x:c>
+      <x:c r="C9" t="str">
+        <x:v>2140</x:v>
+      </x:c>
+      <x:c r="D9" t="str">
+        <x:v>2352.79699197761</x:v>
+      </x:c>
+      <x:c r="E9" t="str">
+        <x:v>212.79699197761</x:v>
+      </x:c>
+      <x:c r="F9" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G9" t="str">
+        <x:v>9.08007315253451</x:v>
+      </x:c>
+      <x:c r="H9" t="str">
+        <x:v>7.08007315253451</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" t="str">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B10" t="str">
+        <x:v>3486.85384976611</x:v>
+      </x:c>
+      <x:c r="C10" t="str">
+        <x:v>2160</x:v>
+      </x:c>
+      <x:c r="D10" t="str">
+        <x:v>2440.79769483628</x:v>
+      </x:c>
+      <x:c r="E10" t="str">
+        <x:v>280.797694836276</x:v>
+      </x:c>
+      <x:c r="F10" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G10" t="str">
+        <x:v>8.52006741919867</x:v>
+      </x:c>
+      <x:c r="H10" t="str">
+        <x:v>6.52006741919867</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" t="str">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B11" t="str">
+        <x:v>3604.56905765941</x:v>
+      </x:c>
+      <x:c r="C11" t="str">
+        <x:v>2180</x:v>
+      </x:c>
+      <x:c r="D11" t="str">
+        <x:v>2523.19834036158</x:v>
+      </x:c>
+      <x:c r="E11" t="str">
+        <x:v>343.198340361584</x:v>
+      </x:c>
+      <x:c r="F11" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G11" t="str">
+        <x:v>7.96006168586282</x:v>
+      </x:c>
+      <x:c r="H11" t="str">
+        <x:v>5.96006168586282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12" t="str">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B12" t="str">
+        <x:v>3714.2841836479</x:v>
+      </x:c>
+      <x:c r="C12" t="str">
+        <x:v>2200</x:v>
+      </x:c>
+      <x:c r="D12" t="str">
+        <x:v>2599.99892855353</x:v>
+      </x:c>
+      <x:c r="E12" t="str">
+        <x:v>399.998928553533</x:v>
+      </x:c>
+      <x:c r="F12" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G12" t="str">
+        <x:v>7.40005595252698</x:v>
+      </x:c>
+      <x:c r="H12" t="str">
+        <x:v>5.40005595252698</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13" t="str">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B13" t="str">
+        <x:v>3815.9992277316</x:v>
+      </x:c>
+      <x:c r="C13" t="str">
+        <x:v>2220</x:v>
+      </x:c>
+      <x:c r="D13" t="str">
+        <x:v>2671.19945941212</x:v>
+      </x:c>
+      <x:c r="E13" t="str">
+        <x:v>451.199459412123</x:v>
+      </x:c>
+      <x:c r="F13" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G13" t="str">
+        <x:v>6.84005021919113</x:v>
+      </x:c>
+      <x:c r="H13" t="str">
+        <x:v>4.84005021919113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="A14" t="str">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B14" t="str">
+        <x:v>3909.71418991051</x:v>
+      </x:c>
+      <x:c r="C14" t="str">
+        <x:v>2240</x:v>
+      </x:c>
+      <x:c r="D14" t="str">
+        <x:v>2736.79993293735</x:v>
+      </x:c>
+      <x:c r="E14" t="str">
+        <x:v>496.799932937355</x:v>
+      </x:c>
+      <x:c r="F14" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G14" t="str">
+        <x:v>6.28004448585529</x:v>
+      </x:c>
+      <x:c r="H14" t="str">
+        <x:v>4.28004448585529</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" t="str">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B15" t="str">
+        <x:v>3995.42907018461</x:v>
+      </x:c>
+      <x:c r="C15" t="str">
+        <x:v>2260</x:v>
+      </x:c>
+      <x:c r="D15" t="str">
+        <x:v>2796.80034912923</x:v>
+      </x:c>
+      <x:c r="E15" t="str">
+        <x:v>536.800349129229</x:v>
+      </x:c>
+      <x:c r="F15" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G15" t="str">
+        <x:v>5.72003875251944</x:v>
+      </x:c>
+      <x:c r="H15" t="str">
+        <x:v>3.72003875251944</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="str">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B16" t="str">
+        <x:v>4073.14386855392</x:v>
+      </x:c>
+      <x:c r="C16" t="str">
+        <x:v>2280</x:v>
+      </x:c>
+      <x:c r="D16" t="str">
+        <x:v>2851.20070798774</x:v>
+      </x:c>
+      <x:c r="E16" t="str">
+        <x:v>571.200707987744</x:v>
+      </x:c>
+      <x:c r="F16" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G16" t="str">
+        <x:v>5.16003301918359</x:v>
+      </x:c>
+      <x:c r="H16" t="str">
+        <x:v>3.16003301918359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" t="str">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B17" t="str">
+        <x:v>4142.85858501843</x:v>
+      </x:c>
+      <x:c r="C17" t="str">
+        <x:v>2300</x:v>
+      </x:c>
+      <x:c r="D17" t="str">
+        <x:v>2900.0010095129</x:v>
+      </x:c>
+      <x:c r="E17" t="str">
+        <x:v>600.001009512901</x:v>
+      </x:c>
+      <x:c r="F17" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G17" t="str">
+        <x:v>4.60002728584775</x:v>
+      </x:c>
+      <x:c r="H17" t="str">
+        <x:v>2.60002728584775</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" t="str">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B18" t="str">
+        <x:v>4204.57321957814</x:v>
+      </x:c>
+      <x:c r="C18" t="str">
+        <x:v>2320</x:v>
+      </x:c>
+      <x:c r="D18" t="str">
+        <x:v>2943.2012537047</x:v>
+      </x:c>
+      <x:c r="E18" t="str">
+        <x:v>623.201253704699</x:v>
+      </x:c>
+      <x:c r="F18" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G18" t="str">
+        <x:v>4.0400215525119</x:v>
+      </x:c>
+      <x:c r="H18" t="str">
+        <x:v>2.0400215525119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="str">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B19" t="str">
+        <x:v>4258.28777223306</x:v>
+      </x:c>
+      <x:c r="C19" t="str">
+        <x:v>2340</x:v>
+      </x:c>
+      <x:c r="D19" t="str">
+        <x:v>2980.80144056314</x:v>
+      </x:c>
+      <x:c r="E19" t="str">
+        <x:v>640.801440563139</x:v>
+      </x:c>
+      <x:c r="F19" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G19" t="str">
+        <x:v>3.48001581917606</x:v>
+      </x:c>
+      <x:c r="H19" t="str">
+        <x:v>1.48001581917606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="str">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B20" t="str">
+        <x:v>4304.00224298317</x:v>
+      </x:c>
+      <x:c r="C20" t="str">
+        <x:v>2360</x:v>
+      </x:c>
+      <x:c r="D20" t="str">
+        <x:v>3012.80157008822</x:v>
+      </x:c>
+      <x:c r="E20" t="str">
+        <x:v>652.80157008822</x:v>
+      </x:c>
+      <x:c r="F20" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G20" t="str">
+        <x:v>2.92001008584021</x:v>
+      </x:c>
+      <x:c r="H20" t="str">
+        <x:v>0.920010085840212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="str">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B21" t="str">
+        <x:v>4341.71663182849</x:v>
+      </x:c>
+      <x:c r="C21" t="str">
+        <x:v>2380</x:v>
+      </x:c>
+      <x:c r="D21" t="str">
+        <x:v>3039.20164227994</x:v>
+      </x:c>
+      <x:c r="E21" t="str">
+        <x:v>659.201642279943</x:v>
+      </x:c>
+      <x:c r="F21" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G21" t="str">
+        <x:v>2.36000435250437</x:v>
+      </x:c>
+      <x:c r="H21" t="str">
+        <x:v>0.360004352504366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" t="str">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B22" t="str">
+        <x:v>4371.43093876901</x:v>
+      </x:c>
+      <x:c r="C22" t="str">
+        <x:v>2400</x:v>
+      </x:c>
+      <x:c r="D22" t="str">
+        <x:v>3060.00165713831</x:v>
+      </x:c>
+      <x:c r="E22" t="str">
+        <x:v>660.001657138308</x:v>
+      </x:c>
+      <x:c r="F22" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G22" t="str">
+        <x:v>1.79999861916852</x:v>
+      </x:c>
+      <x:c r="H22" t="str">
+        <x:v>-0.200001380831478</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" t="str">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B23" t="str">
+        <x:v>4393.14516380473</x:v>
+      </x:c>
+      <x:c r="C23" t="str">
+        <x:v>2420</x:v>
+      </x:c>
+      <x:c r="D23" t="str">
+        <x:v>3075.20161466331</x:v>
+      </x:c>
+      <x:c r="E23" t="str">
+        <x:v>655.201614663314</x:v>
+      </x:c>
+      <x:c r="F23" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G23" t="str">
+        <x:v>1.23999288583268</x:v>
+      </x:c>
+      <x:c r="H23" t="str">
+        <x:v>-0.760007114167324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" t="str">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B24" t="str">
+        <x:v>4406.85930693566</x:v>
+      </x:c>
+      <x:c r="C24" t="str">
+        <x:v>2440</x:v>
+      </x:c>
+      <x:c r="D24" t="str">
+        <x:v>3084.80151485496</x:v>
+      </x:c>
+      <x:c r="E24" t="str">
+        <x:v>644.801514854961</x:v>
+      </x:c>
+      <x:c r="F24" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G24" t="str">
+        <x:v>0.67998715249683</x:v>
+      </x:c>
+      <x:c r="H24" t="str">
+        <x:v>-1.32001284750317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" t="str">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B25" t="str">
+        <x:v>4412.57336816179</x:v>
+      </x:c>
+      <x:c r="C25" t="str">
+        <x:v>2460</x:v>
+      </x:c>
+      <x:c r="D25" t="str">
+        <x:v>3088.80135771325</x:v>
+      </x:c>
+      <x:c r="E25" t="str">
+        <x:v>628.80135771325</x:v>
+      </x:c>
+      <x:c r="F25" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G25" t="str">
+        <x:v>0.119981419160985</x:v>
+      </x:c>
+      <x:c r="H25" t="str">
+        <x:v>-1.88001858083902</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" t="str">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B26" t="str">
+        <x:v>4410.28734748311</x:v>
+      </x:c>
+      <x:c r="C26" t="str">
+        <x:v>2480</x:v>
+      </x:c>
+      <x:c r="D26" t="str">
+        <x:v>3087.20114323818</x:v>
+      </x:c>
+      <x:c r="E26" t="str">
+        <x:v>607.20114323818</x:v>
+      </x:c>
+      <x:c r="F26" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G26" t="str">
+        <x:v>-0.440024314174861</x:v>
+      </x:c>
+      <x:c r="H26" t="str">
+        <x:v>-2.44002431417486</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" t="str">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B27" t="str">
+        <x:v>4400.00124489965</x:v>
+      </x:c>
+      <x:c r="C27" t="str">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="D27" t="str">
+        <x:v>3080.00087142975</x:v>
+      </x:c>
+      <x:c r="E27" t="str">
+        <x:v>580.000871429752</x:v>
+      </x:c>
+      <x:c r="F27" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G27" t="str">
+        <x:v>-1.00003004751071</x:v>
+      </x:c>
+      <x:c r="H27" t="str">
+        <x:v>-3.00003004751071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="str">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B28" t="str">
+        <x:v>4381.71506041138</x:v>
+      </x:c>
+      <x:c r="C28" t="str">
+        <x:v>2520</x:v>
+      </x:c>
+      <x:c r="D28" t="str">
+        <x:v>3067.20054228797</x:v>
+      </x:c>
+      <x:c r="E28" t="str">
+        <x:v>547.200542287967</x:v>
+      </x:c>
+      <x:c r="F28" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G28" t="str">
+        <x:v>-1.56003578084655</x:v>
+      </x:c>
+      <x:c r="H28" t="str">
+        <x:v>-3.56003578084655</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="str">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B29" t="str">
+        <x:v>4355.42879401832</x:v>
+      </x:c>
+      <x:c r="C29" t="str">
+        <x:v>2540</x:v>
+      </x:c>
+      <x:c r="D29" t="str">
+        <x:v>3048.80015581282</x:v>
+      </x:c>
+      <x:c r="E29" t="str">
+        <x:v>508.800155812822</x:v>
+      </x:c>
+      <x:c r="F29" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G29" t="str">
+        <x:v>-2.1200415141824</x:v>
+      </x:c>
+      <x:c r="H29" t="str">
+        <x:v>-4.1200415141824</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="str">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B30" t="str">
+        <x:v>4321.14244572046</x:v>
+      </x:c>
+      <x:c r="C30" t="str">
+        <x:v>2560</x:v>
+      </x:c>
+      <x:c r="D30" t="str">
+        <x:v>3024.79971200432</x:v>
+      </x:c>
+      <x:c r="E30" t="str">
+        <x:v>464.799712004319</x:v>
+      </x:c>
+      <x:c r="F30" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G30" t="str">
+        <x:v>-2.68004724751824</x:v>
+      </x:c>
+      <x:c r="H30" t="str">
+        <x:v>-4.68004724751824</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="str">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B31" t="str">
+        <x:v>4278.85601551779</x:v>
+      </x:c>
+      <x:c r="C31" t="str">
+        <x:v>2580</x:v>
+      </x:c>
+      <x:c r="D31" t="str">
+        <x:v>2995.19921086246</x:v>
+      </x:c>
+      <x:c r="E31" t="str">
+        <x:v>415.199210862456</x:v>
+      </x:c>
+      <x:c r="F31" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G31" t="str">
+        <x:v>-3.24005298085409</x:v>
+      </x:c>
+      <x:c r="H31" t="str">
+        <x:v>-5.24005298085409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="str">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B32" t="str">
+        <x:v>4228.56950341034</x:v>
+      </x:c>
+      <x:c r="C32" t="str">
+        <x:v>2600</x:v>
+      </x:c>
+      <x:c r="D32" t="str">
+        <x:v>2959.99865238724</x:v>
+      </x:c>
+      <x:c r="E32" t="str">
+        <x:v>359.998652387236</x:v>
+      </x:c>
+      <x:c r="F32" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G32" t="str">
+        <x:v>-3.80005871418994</x:v>
+      </x:c>
+      <x:c r="H32" t="str">
+        <x:v>-5.80005871418994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="str">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B33" t="str">
+        <x:v>4170.28290939808</x:v>
+      </x:c>
+      <x:c r="C33" t="str">
+        <x:v>2620</x:v>
+      </x:c>
+      <x:c r="D33" t="str">
+        <x:v>2919.19803657866</x:v>
+      </x:c>
+      <x:c r="E33" t="str">
+        <x:v>299.198036578659</x:v>
+      </x:c>
+      <x:c r="F33" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G33" t="str">
+        <x:v>-4.36006444752578</x:v>
+      </x:c>
+      <x:c r="H33" t="str">
+        <x:v>-6.36006444752578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="str">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B34" t="str">
+        <x:v>4103.99623348103</x:v>
+      </x:c>
+      <x:c r="C34" t="str">
+        <x:v>2640</x:v>
+      </x:c>
+      <x:c r="D34" t="str">
+        <x:v>2872.79736343672</x:v>
+      </x:c>
+      <x:c r="E34" t="str">
+        <x:v>232.797363436721</x:v>
+      </x:c>
+      <x:c r="F34" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G34" t="str">
+        <x:v>-4.92007018086163</x:v>
+      </x:c>
+      <x:c r="H34" t="str">
+        <x:v>-6.92007018086163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="str">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B35" t="str">
+        <x:v>4029.70947565918</x:v>
+      </x:c>
+      <x:c r="C35" t="str">
+        <x:v>2660</x:v>
+      </x:c>
+      <x:c r="D35" t="str">
+        <x:v>2820.79663296143</x:v>
+      </x:c>
+      <x:c r="E35" t="str">
+        <x:v>160.796632961426</x:v>
+      </x:c>
+      <x:c r="F35" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G35" t="str">
+        <x:v>-5.48007591419747</x:v>
+      </x:c>
+      <x:c r="H35" t="str">
+        <x:v>-7.48007591419747</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="str">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B36" t="str">
+        <x:v>3947.42263593253</x:v>
+      </x:c>
+      <x:c r="C36" t="str">
+        <x:v>2680</x:v>
+      </x:c>
+      <x:c r="D36" t="str">
+        <x:v>2763.19584515277</x:v>
+      </x:c>
+      <x:c r="E36" t="str">
+        <x:v>83.1958451527721</x:v>
+      </x:c>
+      <x:c r="F36" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G36" t="str">
+        <x:v>-6.04008164753332</x:v>
+      </x:c>
+      <x:c r="H36" t="str">
+        <x:v>-8.04008164753332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" t="str">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B37" t="str">
+        <x:v>3857.13571430108</x:v>
+      </x:c>
+      <x:c r="C37" t="str">
+        <x:v>2700</x:v>
+      </x:c>
+      <x:c r="D37" t="str">
+        <x:v>2699.99500001076</x:v>
+      </x:c>
+      <x:c r="E37" t="str">
+        <x:v>-0.00499998924169631</x:v>
+      </x:c>
+      <x:c r="F37" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G37" t="str">
+        <x:v>-6.60008738086916</x:v>
+      </x:c>
+      <x:c r="H37" t="str">
+        <x:v>-8.60008738086916</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" t="str">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B38" t="str">
+        <x:v>3758.84871076484</x:v>
+      </x:c>
+      <x:c r="C38" t="str">
+        <x:v>2720</x:v>
+      </x:c>
+      <x:c r="D38" t="str">
+        <x:v>2631.19409753539</x:v>
+      </x:c>
+      <x:c r="E38" t="str">
+        <x:v>-88.8059024646122</x:v>
+      </x:c>
+      <x:c r="F38" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G38" t="str">
+        <x:v>-7.16009311420501</x:v>
+      </x:c>
+      <x:c r="H38" t="str">
+        <x:v>-9.16009311420501</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" t="str">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B39" t="str">
+        <x:v>3652.5616253238</x:v>
+      </x:c>
+      <x:c r="C39" t="str">
+        <x:v>2740</x:v>
+      </x:c>
+      <x:c r="D39" t="str">
+        <x:v>2556.79313772666</x:v>
+      </x:c>
+      <x:c r="E39" t="str">
+        <x:v>-183.206862273341</x:v>
+      </x:c>
+      <x:c r="F39" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G39" t="str">
+        <x:v>-7.72009884754085</x:v>
+      </x:c>
+      <x:c r="H39" t="str">
+        <x:v>-9.72009884754085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" t="str">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B40" t="str">
+        <x:v>3538.27445797796</x:v>
+      </x:c>
+      <x:c r="C40" t="str">
+        <x:v>2760</x:v>
+      </x:c>
+      <x:c r="D40" t="str">
+        <x:v>2476.79212058457</x:v>
+      </x:c>
+      <x:c r="E40" t="str">
+        <x:v>-283.207879415429</x:v>
+      </x:c>
+      <x:c r="F40" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G40" t="str">
+        <x:v>-8.2801045808767</x:v>
+      </x:c>
+      <x:c r="H40" t="str">
+        <x:v>-10.2801045808767</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" t="str">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B41" t="str">
+        <x:v>3415.98720872732</x:v>
+      </x:c>
+      <x:c r="C41" t="str">
+        <x:v>2780</x:v>
+      </x:c>
+      <x:c r="D41" t="str">
+        <x:v>2391.19104610913</x:v>
+      </x:c>
+      <x:c r="E41" t="str">
+        <x:v>-388.808953890874</x:v>
+      </x:c>
+      <x:c r="F41" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G41" t="str">
+        <x:v>-8.84011031421254</x:v>
+      </x:c>
+      <x:c r="H41" t="str">
+        <x:v>-10.8401103142125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" t="str">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B42" t="str">
+        <x:v>3285.69987757189</x:v>
+      </x:c>
+      <x:c r="C42" t="str">
+        <x:v>2800</x:v>
+      </x:c>
+      <x:c r="D42" t="str">
+        <x:v>2299.98991430032</x:v>
+      </x:c>
+      <x:c r="E42" t="str">
+        <x:v>-500.010085699679</x:v>
+      </x:c>
+      <x:c r="F42" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G42" t="str">
+        <x:v>-9.40011604754839</x:v>
+      </x:c>
+      <x:c r="H42" t="str">
+        <x:v>-11.4001160475484</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" t="str">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B43" t="str">
+        <x:v>3147.41246451165</x:v>
+      </x:c>
+      <x:c r="C43" t="str">
+        <x:v>2820</x:v>
+      </x:c>
+      <x:c r="D43" t="str">
+        <x:v>2203.18872515816</x:v>
+      </x:c>
+      <x:c r="E43" t="str">
+        <x:v>-616.811274841843</x:v>
+      </x:c>
+      <x:c r="F43" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G43" t="str">
+        <x:v>-9.96012178088423</x:v>
+      </x:c>
+      <x:c r="H43" t="str">
+        <x:v>-11.9601217808842</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="str">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B44" t="str">
+        <x:v>3001.12496954662</x:v>
+      </x:c>
+      <x:c r="C44" t="str">
+        <x:v>2840</x:v>
+      </x:c>
+      <x:c r="D44" t="str">
+        <x:v>2100.78747868264</x:v>
+      </x:c>
+      <x:c r="E44" t="str">
+        <x:v>-739.212521317364</x:v>
+      </x:c>
+      <x:c r="F44" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G44" t="str">
+        <x:v>-10.5201275142201</x:v>
+      </x:c>
+      <x:c r="H44" t="str">
+        <x:v>-12.5201275142201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" t="str">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="B45" t="str">
+        <x:v>2846.83739267679</x:v>
+      </x:c>
+      <x:c r="C45" t="str">
+        <x:v>2860</x:v>
+      </x:c>
+      <x:c r="D45" t="str">
+        <x:v>1992.78617487376</x:v>
+      </x:c>
+      <x:c r="E45" t="str">
+        <x:v>-867.213825126244</x:v>
+      </x:c>
+      <x:c r="F45" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G45" t="str">
+        <x:v>-11.0801332475559</x:v>
+      </x:c>
+      <x:c r="H45" t="str">
+        <x:v>-13.0801332475559</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" t="str">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="B46" t="str">
+        <x:v>2684.54973390217</x:v>
+      </x:c>
+      <x:c r="C46" t="str">
+        <x:v>2880</x:v>
+      </x:c>
+      <x:c r="D46" t="str">
+        <x:v>1879.18481373152</x:v>
+      </x:c>
+      <x:c r="E46" t="str">
+        <x:v>-1000.81518626848</x:v>
+      </x:c>
+      <x:c r="F46" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G46" t="str">
+        <x:v>-11.6401389808918</x:v>
+      </x:c>
+      <x:c r="H46" t="str">
+        <x:v>-13.6401389808918</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" t="str">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B47" t="str">
+        <x:v>2514.26199322274</x:v>
+      </x:c>
+      <x:c r="C47" t="str">
+        <x:v>2900</x:v>
+      </x:c>
+      <x:c r="D47" t="str">
+        <x:v>1759.98339525592</x:v>
+      </x:c>
+      <x:c r="E47" t="str">
+        <x:v>-1140.01660474408</x:v>
+      </x:c>
+      <x:c r="F47" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G47" t="str">
+        <x:v>-12.2001447142276</x:v>
+      </x:c>
+      <x:c r="H47" t="str">
+        <x:v>-14.2001447142276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" t="str">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="B48" t="str">
+        <x:v>2335.97417063852</x:v>
+      </x:c>
+      <x:c r="C48" t="str">
+        <x:v>2920</x:v>
+      </x:c>
+      <x:c r="D48" t="str">
+        <x:v>1635.18191944696</x:v>
+      </x:c>
+      <x:c r="E48" t="str">
+        <x:v>-1284.81808055304</x:v>
+      </x:c>
+      <x:c r="F48" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G48" t="str">
+        <x:v>-12.7601504475635</x:v>
+      </x:c>
+      <x:c r="H48" t="str">
+        <x:v>-14.7601504475635</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+</x:worksheet>
 </file>
--- a/statistici.xlsx
+++ b/statistici.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Date initiale" sheetId="1" r:id="Rca792634cdda48e7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validare" sheetId="2" r:id="R4d13f3715d0b49b2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valori de interes" sheetId="3" r:id="R8e0f8cc56deb4459"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Preturi de referinta" sheetId="4" r:id="Re0eb2acbddc94d61"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rezultate economice" sheetId="5" r:id="R93e14c6a086647bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Date initiale" sheetId="1" r:id="R22252c9a1ee84ee2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validare" sheetId="2" r:id="R612e4c9397a64ad8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valori de interes" sheetId="3" r:id="R19001aa75856427c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Preturi de referinta" sheetId="4" r:id="Rd9f20578da7849dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rezultate economice" sheetId="5" r:id="R03d00fcdf9ef4b95"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/statistici.xlsx
+++ b/statistici.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Date initiale" sheetId="1" r:id="R22252c9a1ee84ee2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validare" sheetId="2" r:id="R612e4c9397a64ad8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valori de interes" sheetId="3" r:id="R19001aa75856427c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Preturi de referinta" sheetId="4" r:id="Rd9f20578da7849dd"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rezultate economice" sheetId="5" r:id="R03d00fcdf9ef4b95"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Date initiale" sheetId="1" r:id="R34f355cf742749b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validare" sheetId="2" r:id="R0a689c7415444918"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valori de interes" sheetId="3" r:id="R788ebae74f0446cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Preturi de referinta" sheetId="4" r:id="Ra81668df37444421"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rezultate economice" sheetId="5" r:id="R8712bf2afab345be"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -114,6 +114,24 @@
       <x:c r="G1" t="str">
         <x:v>f 5%</x:v>
       </x:c>
+      <x:c r="H1" t="str">
+        <x:v>Abatere</x:v>
+      </x:c>
+      <x:c r="I1" t="str">
+        <x:v>tp 80%</x:v>
+      </x:c>
+      <x:c r="J1" t="str">
+        <x:v>tp 90%</x:v>
+      </x:c>
+      <x:c r="K1" t="str">
+        <x:v>tp 95%</x:v>
+      </x:c>
+      <x:c r="L1" t="str">
+        <x:v>tp 99%</x:v>
+      </x:c>
+      <x:c r="M1" t="str">
+        <x:v>tp 99.9%</x:v>
+      </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="A2" t="str">
@@ -132,10 +150,28 @@
         <x:v>0.9955911818611</x:v>
       </x:c>
       <x:c r="F2" t="str">
-        <x:v>10.92</x:v>
+        <x:v>13.27</x:v>
       </x:c>
       <x:c r="G2" t="str">
-        <x:v>5.14</x:v>
+        <x:v>5.79</x:v>
+      </x:c>
+      <x:c r="H2" t="str">
+        <x:v>304.613058889895</x:v>
+      </x:c>
+      <x:c r="I2" t="str">
+        <x:v>1.44</x:v>
+      </x:c>
+      <x:c r="J2" t="str">
+        <x:v>1.943</x:v>
+      </x:c>
+      <x:c r="K2" t="str">
+        <x:v>2.447</x:v>
+      </x:c>
+      <x:c r="L2" t="str">
+        <x:v>3.707</x:v>
+      </x:c>
+      <x:c r="M2" t="str">
+        <x:v>5.959</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
